--- a/data/case1/11/Q_device_3.xlsx
+++ b/data/case1/11/Q_device_3.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.036504371949035636</v>
+        <v>-0.021144659550824819</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.036640920542830017</v>
+        <v>-0.02115841701288447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0062544713603461905</v>
+        <v>-0.025596668085641247</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0060384330139092567</v>
+        <v>0.025596668054237829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.017457220916198231</v>
+        <v>-0.0051682340627409529</v>
       </c>
       <c r="B3" s="0">
-        <v>0.017457220812281807</v>
+        <v>0.0051682340069879214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.028403477602415187</v>
+        <v>0.047966594128354183</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.028403477666336691</v>
+        <v>-0.047966594176531062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.033509783823610896</v>
+        <v>-0.014271729862585163</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.033509783904305451</v>
+        <v>0.014271729781320261</v>
       </c>
     </row>
   </sheetData>
